--- a/Reach Wise Divison/Bar Area/Plot/Bar-Area-Final-Updated.xlsx
+++ b/Reach Wise Divison/Bar Area/Plot/Bar-Area-Final-Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiser-my.sharepoint.com/personal/sohan16_iiserb_ac_in/Documents/Excel data for Various Parameters/Reach Wise Divison/Bar Area/Plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{132EFF48-CFF2-4372-96AC-A12C05FEC43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{881504A8-1D50-48C1-ABDB-A9659C4F33DD}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{132EFF48-CFF2-4372-96AC-A12C05FEC43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDD32510-F2D1-44F2-BA53-7378C2C4D2AA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,14 +97,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Vrinda"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -112,7 +112,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +120,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,35 +128,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,14 +172,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,14 +187,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -202,7 +202,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,14 +210,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -933,12 +933,15 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>1.1212880000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>1.9572595260000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>1.5499864430000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>1.122289391</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>0.66612980499999996</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>1.2699563650000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>0.33741887999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>0.27079066200000002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
